--- a/team_specific_matrix/Ole Miss_B.xlsx
+++ b/team_specific_matrix/Ole Miss_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2061855670103093</v>
+        <v>0.2036363636363636</v>
       </c>
       <c r="C2">
-        <v>0.5360824742268041</v>
+        <v>0.5309090909090909</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03092783505154639</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1494845360824742</v>
+        <v>0.1490909090909091</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07731958762886598</v>
+        <v>0.07636363636363637</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01941747572815534</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04854368932038835</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7087378640776699</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2233009708737864</v>
+        <v>0.1986301369863014</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04651162790697674</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7209302325581395</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2325581395348837</v>
+        <v>0.2549019607843137</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07913669064748201</v>
+        <v>0.08</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01438848920863309</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02877697841726619</v>
+        <v>0.02285714285714286</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2661870503597122</v>
+        <v>0.2685714285714286</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02158273381294964</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1510791366906475</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="R6">
-        <v>0.06474820143884892</v>
+        <v>0.06285714285714286</v>
       </c>
       <c r="S6">
-        <v>0.3741007194244604</v>
+        <v>0.3771428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08609271523178808</v>
+        <v>0.1237623762376238</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01986754966887417</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05960264900662252</v>
+        <v>0.05445544554455446</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1655629139072848</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1788079470198675</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="R7">
-        <v>0.0728476821192053</v>
+        <v>0.09405940594059406</v>
       </c>
       <c r="S7">
-        <v>0.4172185430463576</v>
+        <v>0.405940594059406</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05444126074498568</v>
+        <v>0.06935123042505593</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02292263610315186</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04297994269340974</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1375358166189112</v>
+        <v>0.1387024608501119</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01432664756446991</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1919770773638969</v>
+        <v>0.1923937360178971</v>
       </c>
       <c r="R8">
-        <v>0.1088825214899714</v>
+        <v>0.1029082774049217</v>
       </c>
       <c r="S8">
-        <v>0.4269340974212034</v>
+        <v>0.4138702460850112</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06535947712418301</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0261437908496732</v>
+        <v>0.03125</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0718954248366013</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1503267973856209</v>
+        <v>0.140625</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006535947712418301</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2222222222222222</v>
+        <v>0.21875</v>
       </c>
       <c r="R9">
-        <v>0.09803921568627451</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="S9">
-        <v>0.3594771241830065</v>
+        <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1053203040173724</v>
+        <v>0.1097972972972973</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02823018458197611</v>
+        <v>0.02364864864864865</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06406080347448426</v>
+        <v>0.06418918918918919</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1444082519001086</v>
+        <v>0.1368243243243243</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.004343105320304018</v>
+        <v>0.005912162162162162</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2030401737242128</v>
+        <v>0.2043918918918919</v>
       </c>
       <c r="R10">
-        <v>0.07709011943539631</v>
+        <v>0.07347972972972973</v>
       </c>
       <c r="S10">
-        <v>0.3735070575461455</v>
+        <v>0.3817567567567567</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1728971962616822</v>
+        <v>0.1796610169491525</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05607476635514019</v>
+        <v>0.0576271186440678</v>
       </c>
       <c r="K11">
-        <v>0.2149532710280374</v>
+        <v>0.223728813559322</v>
       </c>
       <c r="L11">
-        <v>0.5467289719626168</v>
+        <v>0.5322033898305085</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009345794392523364</v>
+        <v>0.006779661016949152</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8067226890756303</v>
+        <v>0.7875</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1428571428571428</v>
+        <v>0.1625</v>
       </c>
       <c r="K12">
-        <v>0.008403361344537815</v>
+        <v>0.00625</v>
       </c>
       <c r="L12">
-        <v>0.01680672268907563</v>
+        <v>0.01875</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02521008403361345</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7027027027027027</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2432432432432433</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03333333333333333</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2466666666666667</v>
+        <v>0.2315270935960591</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J15">
-        <v>0.3533333333333333</v>
+        <v>0.3842364532019704</v>
       </c>
       <c r="K15">
-        <v>0.01333333333333333</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006666666666666667</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05333333333333334</v>
+        <v>0.04433497536945813</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1933333333333333</v>
+        <v>0.1773399014778325</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007633587786259542</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2137404580152672</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="I16">
-        <v>0.1221374045801527</v>
+        <v>0.09340659340659341</v>
       </c>
       <c r="J16">
-        <v>0.3358778625954199</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="K16">
-        <v>0.1374045801526718</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.007633587786259542</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="N16">
-        <v>0.007633587786259542</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="O16">
-        <v>0.06870229007633588</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.09923664122137404</v>
+        <v>0.0989010989010989</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01801801801801802</v>
+        <v>0.01411764705882353</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1831831831831832</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.07807807807807808</v>
+        <v>0.08705882352941176</v>
       </c>
       <c r="J17">
-        <v>0.4534534534534534</v>
+        <v>0.4376470588235294</v>
       </c>
       <c r="K17">
-        <v>0.08408408408408409</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02402402402402402</v>
+        <v>0.0188235294117647</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04204204204204205</v>
+        <v>0.04470588235294118</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1171171171171171</v>
+        <v>0.1129411764705882</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01418439716312057</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1702127659574468</v>
+        <v>0.1620111731843575</v>
       </c>
       <c r="I18">
-        <v>0.09219858156028368</v>
+        <v>0.0893854748603352</v>
       </c>
       <c r="J18">
-        <v>0.3900709219858156</v>
+        <v>0.4134078212290503</v>
       </c>
       <c r="K18">
-        <v>0.1347517730496454</v>
+        <v>0.1396648044692737</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01418439716312057</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0851063829787234</v>
+        <v>0.0670391061452514</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09929078014184398</v>
+        <v>0.106145251396648</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0109051254089422</v>
+        <v>0.00919732441471572</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2202835332606325</v>
+        <v>0.2090301003344482</v>
       </c>
       <c r="I19">
-        <v>0.09051254089422028</v>
+        <v>0.08444816053511706</v>
       </c>
       <c r="J19">
-        <v>0.3456924754634678</v>
+        <v>0.3403010033444816</v>
       </c>
       <c r="K19">
-        <v>0.1046892039258451</v>
+        <v>0.1095317725752508</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02726281352235551</v>
+        <v>0.02926421404682274</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07960741548527808</v>
+        <v>0.08528428093645485</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1210468920392584</v>
+        <v>0.132943143812709</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ole Miss_B.xlsx
+++ b/team_specific_matrix/Ole Miss_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2036363636363636</v>
+        <v>0.1966101694915254</v>
       </c>
       <c r="C2">
-        <v>0.5309090909090909</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.03728813559322034</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1490909090909091</v>
+        <v>0.1457627118644068</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07636363636363637</v>
+        <v>0.07796610169491526</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02054794520547945</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0410958904109589</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7397260273972602</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1986301369863014</v>
+        <v>0.1925465838509317</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0392156862745098</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7058823529411765</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2549019607843137</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01714285714285714</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02285714285714286</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2685714285714286</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01714285714285714</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1542857142857143</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="R6">
-        <v>0.06285714285714286</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="S6">
-        <v>0.3771428571428572</v>
+        <v>0.3915343915343915</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1237623762376238</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0198019801980198</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05445544554455446</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1386138613861386</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004950495049504951</v>
+        <v>0.004464285714285714</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1584158415841584</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="R7">
-        <v>0.09405940594059406</v>
+        <v>0.1160714285714286</v>
       </c>
       <c r="S7">
-        <v>0.405940594059406</v>
+        <v>0.3928571428571428</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06935123042505593</v>
+        <v>0.06708595387840671</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02237136465324385</v>
+        <v>0.02306079664570231</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04697986577181208</v>
+        <v>0.04612159329140461</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1387024608501119</v>
+        <v>0.1425576519916142</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01342281879194631</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1923937360178971</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="R8">
-        <v>0.1029082774049217</v>
+        <v>0.1048218029350105</v>
       </c>
       <c r="S8">
-        <v>0.4138702460850112</v>
+        <v>0.4150943396226415</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07291666666666667</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03125</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07291666666666667</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.140625</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005208333333333333</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.21875</v>
+        <v>0.2216748768472906</v>
       </c>
       <c r="R9">
-        <v>0.1041666666666667</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="S9">
-        <v>0.3541666666666667</v>
+        <v>0.3448275862068966</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1097972972972973</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02364864864864865</v>
+        <v>0.02258566978193146</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.000778816199376947</v>
       </c>
       <c r="F10">
-        <v>0.06418918918918919</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1368243243243243</v>
+        <v>0.1394080996884735</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.005912162162162162</v>
+        <v>0.007009345794392523</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2043918918918919</v>
+        <v>0.205607476635514</v>
       </c>
       <c r="R10">
-        <v>0.07347972972972973</v>
+        <v>0.07476635514018691</v>
       </c>
       <c r="S10">
-        <v>0.3817567567567567</v>
+        <v>0.3722741433021807</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1796610169491525</v>
+        <v>0.1812688821752266</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0576271186440678</v>
+        <v>0.06042296072507553</v>
       </c>
       <c r="K11">
-        <v>0.223728813559322</v>
+        <v>0.2235649546827795</v>
       </c>
       <c r="L11">
-        <v>0.5322033898305085</v>
+        <v>0.5256797583081571</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006779661016949152</v>
+        <v>0.00906344410876133</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7875</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1625</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0.00625</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="L12">
-        <v>0.01875</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.025</v>
+        <v>0.02222222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7446808510638298</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2127659574468085</v>
+        <v>0.196078431372549</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0425531914893617</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02955665024630542</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2315270935960591</v>
+        <v>0.2339449541284404</v>
       </c>
       <c r="I15">
-        <v>0.103448275862069</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="J15">
-        <v>0.3842364532019704</v>
+        <v>0.3715596330275229</v>
       </c>
       <c r="K15">
-        <v>0.02463054187192118</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004926108374384237</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04433497536945813</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1773399014778325</v>
+        <v>0.1834862385321101</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01098901098901099</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2142857142857143</v>
+        <v>0.2131979695431472</v>
       </c>
       <c r="I16">
-        <v>0.09340659340659341</v>
+        <v>0.09644670050761421</v>
       </c>
       <c r="J16">
-        <v>0.3516483516483517</v>
+        <v>0.350253807106599</v>
       </c>
       <c r="K16">
-        <v>0.1373626373626374</v>
+        <v>0.1421319796954315</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005494505494505495</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="N16">
-        <v>0.005494505494505495</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="O16">
-        <v>0.08241758241758242</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.0989010989010989</v>
+        <v>0.1015228426395939</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01411764705882353</v>
+        <v>0.01525054466230937</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.2004357298474946</v>
       </c>
       <c r="I17">
-        <v>0.08705882352941176</v>
+        <v>0.08496732026143791</v>
       </c>
       <c r="J17">
-        <v>0.4376470588235294</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="K17">
-        <v>0.08470588235294117</v>
+        <v>0.0915032679738562</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0188235294117647</v>
+        <v>0.02178649237472767</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04470588235294118</v>
+        <v>0.04357298474945534</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1129411764705882</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0111731843575419</v>
+        <v>0.01</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1620111731843575</v>
+        <v>0.17</v>
       </c>
       <c r="I18">
-        <v>0.0893854748603352</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.4134078212290503</v>
+        <v>0.415</v>
       </c>
       <c r="K18">
-        <v>0.1396648044692737</v>
+        <v>0.14</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0111731843575419</v>
+        <v>0.01</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0670391061452514</v>
+        <v>0.065</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.106145251396648</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.00919732441471572</v>
+        <v>0.01016419077404222</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2090301003344482</v>
+        <v>0.2040656763096169</v>
       </c>
       <c r="I19">
-        <v>0.08444816053511706</v>
+        <v>0.08444096950742767</v>
       </c>
       <c r="J19">
-        <v>0.3403010033444816</v>
+        <v>0.343236903831118</v>
       </c>
       <c r="K19">
-        <v>0.1095317725752508</v>
+        <v>0.1125879593432369</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02926421404682274</v>
+        <v>0.0289288506645817</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08528428093645485</v>
+        <v>0.08444096950742767</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.132943143812709</v>
+        <v>0.1321344800625489</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ole Miss_B.xlsx
+++ b/team_specific_matrix/Ole Miss_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1966101694915254</v>
+        <v>0.19375</v>
       </c>
       <c r="C2">
-        <v>0.5423728813559322</v>
+        <v>0.546875</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03728813559322034</v>
+        <v>0.034375</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1457627118644068</v>
+        <v>0.14375</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07796610169491526</v>
+        <v>0.08125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="C3">
-        <v>0.01863354037267081</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04347826086956522</v>
+        <v>0.03932584269662921</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7453416149068323</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1925465838509317</v>
+        <v>0.1853932584269663</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03703703703703703</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6851851851851852</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2777777777777778</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07407407407407407</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01587301587301587</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02116402116402116</v>
+        <v>0.02870813397129187</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2698412698412698</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01587301587301587</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1481481481481481</v>
+        <v>0.1531100478468899</v>
       </c>
       <c r="R6">
-        <v>0.06349206349206349</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="S6">
-        <v>0.3915343915343915</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1160714285714286</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01785714285714286</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05357142857142857</v>
+        <v>0.05371900826446281</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1339285714285714</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004464285714285714</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1651785714285714</v>
+        <v>0.1694214876033058</v>
       </c>
       <c r="R7">
-        <v>0.1160714285714286</v>
+        <v>0.1115702479338843</v>
       </c>
       <c r="S7">
-        <v>0.3928571428571428</v>
+        <v>0.384297520661157</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06708595387840671</v>
+        <v>0.06692913385826772</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02306079664570231</v>
+        <v>0.02165354330708661</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04612159329140461</v>
+        <v>0.04527559055118111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1425576519916142</v>
+        <v>0.1397637795275591</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01257861635220126</v>
+        <v>0.01377952755905512</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1886792452830189</v>
+        <v>0.1968503937007874</v>
       </c>
       <c r="R8">
-        <v>0.1048218029350105</v>
+        <v>0.1003937007874016</v>
       </c>
       <c r="S8">
-        <v>0.4150943396226415</v>
+        <v>0.4153543307086614</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07881773399014778</v>
+        <v>0.08294930875576037</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06896551724137931</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1474654377880184</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009852216748768473</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2216748768472906</v>
+        <v>0.2119815668202765</v>
       </c>
       <c r="R9">
-        <v>0.09852216748768473</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="S9">
-        <v>0.3448275862068966</v>
+        <v>0.3456221198156682</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1121495327102804</v>
+        <v>0.113386978785662</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02258566978193146</v>
+        <v>0.02267739575713241</v>
       </c>
       <c r="E10">
-        <v>0.000778816199376947</v>
+        <v>0.000731528895391368</v>
       </c>
       <c r="F10">
-        <v>0.06542056074766354</v>
+        <v>0.06583760058522312</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1394080996884735</v>
+        <v>0.1360643745427944</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.007009345794392523</v>
+        <v>0.007315288953913679</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.205607476635514</v>
+        <v>0.2070226773957571</v>
       </c>
       <c r="R10">
-        <v>0.07476635514018691</v>
+        <v>0.07388441843452817</v>
       </c>
       <c r="S10">
-        <v>0.3722741433021807</v>
+        <v>0.3730797366495976</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1812688821752266</v>
+        <v>0.185792349726776</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06042296072507553</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="K11">
-        <v>0.2235649546827795</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L11">
-        <v>0.5256797583081571</v>
+        <v>0.5136612021857924</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00906344410876133</v>
+        <v>0.00819672131147541</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7666666666666667</v>
+        <v>0.7653061224489796</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1666666666666667</v>
+        <v>0.1581632653061225</v>
       </c>
       <c r="K12">
-        <v>0.01666666666666667</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="L12">
-        <v>0.02777777777777778</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02222222222222222</v>
+        <v>0.02551020408163265</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02752293577981652</v>
+        <v>0.02575107296137339</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2339449541284404</v>
+        <v>0.2274678111587983</v>
       </c>
       <c r="I15">
-        <v>0.0963302752293578</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="J15">
-        <v>0.3715596330275229</v>
+        <v>0.3648068669527897</v>
       </c>
       <c r="K15">
-        <v>0.03669724770642202</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004587155963302753</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04587155963302753</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1834862385321101</v>
+        <v>0.184549356223176</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01015228426395939</v>
+        <v>0.01415094339622642</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2131979695431472</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="I16">
-        <v>0.09644670050761421</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="J16">
-        <v>0.350253807106599</v>
+        <v>0.3443396226415094</v>
       </c>
       <c r="K16">
-        <v>0.1421319796954315</v>
+        <v>0.1415094339622641</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005076142131979695</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="N16">
-        <v>0.005076142131979695</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="O16">
-        <v>0.07614213197969544</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1015228426395939</v>
+        <v>0.1084905660377359</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01525054466230937</v>
+        <v>0.01609657947686117</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2004357298474946</v>
+        <v>0.1991951710261569</v>
       </c>
       <c r="I17">
-        <v>0.08496732026143791</v>
+        <v>0.08249496981891348</v>
       </c>
       <c r="J17">
-        <v>0.4313725490196079</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K17">
-        <v>0.0915032679738562</v>
+        <v>0.09456740442655935</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02178649237472767</v>
+        <v>0.02012072434607646</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04357298474945534</v>
+        <v>0.04426559356136821</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.1146881287726358</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.17</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.08</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J18">
-        <v>0.415</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="K18">
-        <v>0.14</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.065</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.11</v>
+        <v>0.1238095238095238</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01016419077404222</v>
+        <v>0.01241782322863404</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2040656763096169</v>
+        <v>0.2045288531775018</v>
       </c>
       <c r="I19">
-        <v>0.08444096950742767</v>
+        <v>0.08254200146092038</v>
       </c>
       <c r="J19">
-        <v>0.343236903831118</v>
+        <v>0.3447772096420745</v>
       </c>
       <c r="K19">
-        <v>0.1125879593432369</v>
+        <v>0.114682249817385</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0289288506645817</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08444096950742767</v>
+        <v>0.08327246165084003</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1321344800625489</v>
+        <v>0.1307523739956172</v>
       </c>
     </row>
   </sheetData>
